--- a/service-system/target/classes/static/雷达厚度-4车道.xlsx
+++ b/service-system/target/classes/static/雷达厚度-4车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC473FDE-B6D9-47B0-AA00-0C3EADD3939C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C979017-4A7E-4CDE-8983-DF2F1B7CF63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匝道桥" sheetId="28" r:id="rId1"/>
@@ -913,10 +913,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1369,7 +1369,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1537,8 +1537,8 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1552,8 +1552,8 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1567,8 +1567,8 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1582,8 +1582,8 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1597,8 +1597,8 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1612,8 +1612,8 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1627,8 +1627,8 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1642,8 +1642,8 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1657,8 +1657,8 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1672,8 +1672,8 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1687,8 +1687,8 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1702,8 +1702,8 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1717,8 +1717,8 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1732,8 +1732,8 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1747,8 +1747,8 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1762,8 +1762,8 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1777,8 +1777,8 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1792,8 +1792,8 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1807,8 +1807,8 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1822,8 +1822,8 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1837,8 +1837,8 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="18"/>
     </row>
   </sheetData>
@@ -1888,6 +1888,9 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="105" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1895,16 +1898,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="10" width="7.625" style="6" customWidth="1"/>
-    <col min="11" max="13" width="10.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="7" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -2058,8 +2063,8 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2073,8 +2078,8 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2088,8 +2093,8 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2103,8 +2108,8 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2118,8 +2123,8 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2133,8 +2138,8 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2148,8 +2153,8 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2163,8 +2168,8 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2178,8 +2183,8 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2193,8 +2198,8 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2208,8 +2213,8 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2223,8 +2228,8 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2238,8 +2243,8 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2253,8 +2258,8 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2268,8 +2273,8 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2283,8 +2288,8 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2298,8 +2303,8 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2313,8 +2318,8 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2328,8 +2333,8 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2343,8 +2348,8 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2358,8 +2363,8 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="18"/>
     </row>
   </sheetData>
@@ -2407,11 +2412,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" firstPageNumber="63" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L           检测：&amp;R   复核：</oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="105" firstPageNumber="63" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -4124,7 +4128,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4288,8 +4292,8 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4303,8 +4307,8 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4318,8 +4322,8 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4333,8 +4337,8 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4348,8 +4352,8 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4363,8 +4367,8 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4378,8 +4382,8 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4393,8 +4397,8 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4408,8 +4412,8 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4423,8 +4427,8 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4438,8 +4442,8 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4453,8 +4457,8 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4468,8 +4472,8 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4483,8 +4487,8 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4498,8 +4502,8 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4513,8 +4517,8 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4528,8 +4532,8 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4543,8 +4547,8 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4558,8 +4562,8 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4573,8 +4577,8 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4588,8 +4592,8 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="18"/>
     </row>
   </sheetData>
@@ -4639,6 +4643,9 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="105" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4648,7 +4655,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4812,8 +4819,8 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4827,8 +4834,8 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4842,8 +4849,8 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4857,8 +4864,8 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4872,8 +4879,8 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4887,8 +4894,8 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4902,8 +4909,8 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4917,8 +4924,8 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4932,8 +4939,8 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4947,8 +4954,8 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4962,8 +4969,8 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4977,8 +4984,8 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4992,8 +4999,8 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5007,8 +5014,8 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5022,8 +5029,8 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5037,8 +5044,8 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5052,8 +5059,8 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5067,8 +5074,8 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5082,8 +5089,8 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5097,8 +5104,8 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5112,8 +5119,8 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="18"/>
     </row>
   </sheetData>
@@ -5163,6 +5170,9 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="105" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5171,7 +5181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9F099B-B216-48B1-BEDE-AFC45310ED1E}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5336,8 +5346,8 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5351,8 +5361,8 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5366,8 +5376,8 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5381,8 +5391,8 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5396,8 +5406,8 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5411,8 +5421,8 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5426,8 +5436,8 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5441,8 +5451,8 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5456,8 +5466,8 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5471,8 +5481,8 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5486,8 +5496,8 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5501,8 +5511,8 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5516,8 +5526,8 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5531,8 +5541,8 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5546,8 +5556,8 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5561,8 +5571,8 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5576,8 +5586,8 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5591,8 +5601,8 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5606,8 +5616,8 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5621,8 +5631,8 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5636,8 +5646,8 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="18"/>
     </row>
   </sheetData>
@@ -5687,6 +5697,9 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="105" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5696,18 +5709,18 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="10" customWidth="1"/>
     <col min="2" max="5" width="6.375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="10" customWidth="1"/>
     <col min="7" max="10" width="6.375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="10" customWidth="1"/>
     <col min="12" max="15" width="6.375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="7.5" style="22" customWidth="1"/>
+    <col min="16" max="16" width="4.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.15">
@@ -6091,10 +6104,10 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="23"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="43"/>
       <c r="N19" s="44"/>
       <c r="O19" s="45"/>
@@ -6111,10 +6124,10 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="23"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="43"/>
       <c r="N20" s="44"/>
       <c r="O20" s="45"/>
@@ -6131,10 +6144,10 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="24"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="43"/>
       <c r="N21" s="44"/>
       <c r="O21" s="45"/>
@@ -6151,10 +6164,10 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="24"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="43"/>
       <c r="N22" s="44"/>
       <c r="O22" s="45"/>
@@ -6171,10 +6184,10 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="23"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="43"/>
       <c r="N23" s="44"/>
       <c r="O23" s="45"/>
@@ -6191,10 +6204,10 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="24"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="43"/>
       <c r="N24" s="44"/>
       <c r="O24" s="45"/>
@@ -6211,10 +6224,10 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="23"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="43"/>
       <c r="N25" s="44"/>
       <c r="O25" s="45"/>
@@ -6231,10 +6244,10 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="24"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="43"/>
       <c r="N26" s="44"/>
       <c r="O26" s="45"/>
@@ -6251,10 +6264,10 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="24"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="46"/>
       <c r="N27" s="47"/>
       <c r="O27" s="48"/>
@@ -6271,10 +6284,10 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="23"/>
+      <c r="L28" s="24"/>
       <c r="M28" s="43"/>
       <c r="N28" s="44"/>
       <c r="O28" s="45"/>
@@ -6325,11 +6338,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L        检测：&amp;R   复核：</oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="105" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -6340,17 +6352,20 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M19" sqref="M19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12" style="10" customWidth="1"/>
     <col min="2" max="5" width="6.375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="10" customWidth="1"/>
     <col min="7" max="10" width="6.375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="10" customWidth="1"/>
-    <col min="12" max="15" width="6.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="6" style="11" customWidth="1"/>
+    <col min="13" max="13" width="6.375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="5.75" style="11" customWidth="1"/>
+    <col min="15" max="15" width="6.375" style="11" customWidth="1"/>
     <col min="16" max="16" width="7.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6735,10 +6750,10 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="23"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="43"/>
       <c r="N19" s="44"/>
       <c r="O19" s="45"/>
@@ -6755,10 +6770,10 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="23"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="43"/>
       <c r="N20" s="44"/>
       <c r="O20" s="45"/>
@@ -6775,10 +6790,10 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="24"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="43"/>
       <c r="N21" s="44"/>
       <c r="O21" s="45"/>
@@ -6795,10 +6810,10 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="24"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="43"/>
       <c r="N22" s="44"/>
       <c r="O22" s="45"/>
@@ -6815,10 +6830,10 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="23"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="43"/>
       <c r="N23" s="44"/>
       <c r="O23" s="45"/>
@@ -6835,10 +6850,10 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="24"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="43"/>
       <c r="N24" s="44"/>
       <c r="O24" s="45"/>
@@ -6855,10 +6870,10 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="23"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="43"/>
       <c r="N25" s="44"/>
       <c r="O25" s="45"/>
@@ -6875,10 +6890,10 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="24"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="43"/>
       <c r="N26" s="44"/>
       <c r="O26" s="45"/>
@@ -6895,10 +6910,10 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="24"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="46"/>
       <c r="N27" s="47"/>
       <c r="O27" s="48"/>
@@ -6915,10 +6930,10 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="23"/>
+      <c r="L28" s="24"/>
       <c r="M28" s="43"/>
       <c r="N28" s="44"/>
       <c r="O28" s="45"/>
@@ -6969,11 +6984,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L        检测：&amp;R   复核：</oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="103" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -6984,19 +6998,21 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.125" style="5" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="7.625" style="6" customWidth="1" collapsed="1"/>
     <col min="5" max="6" width="7.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="7.625" style="6" customWidth="1" collapsed="1"/>
     <col min="8" max="9" width="7.625" style="6" customWidth="1"/>
     <col min="10" max="10" width="7.625" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="10.625" style="7" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.625" style="7" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.25" style="7" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.625" style="7" customWidth="1" collapsed="1"/>
     <col min="14" max="16384" width="9" style="3" collapsed="1"/>
   </cols>
   <sheetData>
@@ -7150,8 +7166,8 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7165,8 +7181,8 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7180,8 +7196,8 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7195,8 +7211,8 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7210,8 +7226,8 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7225,8 +7241,8 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7240,8 +7256,8 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7255,8 +7271,8 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7270,8 +7286,8 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7285,8 +7301,8 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7300,8 +7316,8 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7315,8 +7331,8 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7330,8 +7346,8 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7345,8 +7361,8 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7360,8 +7376,8 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7375,8 +7391,8 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7390,8 +7406,8 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7405,8 +7421,8 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7420,8 +7436,8 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7435,8 +7451,8 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7450,8 +7466,8 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="18"/>
     </row>
   </sheetData>
@@ -7499,11 +7515,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" firstPageNumber="63" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L           检测：&amp;R   复核：</oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="105" firstPageNumber="63" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -7513,15 +7528,17 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="5" customWidth="1"/>
     <col min="3" max="10" width="7.625" style="6" customWidth="1"/>
-    <col min="11" max="13" width="10.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="7.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="7" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -7675,8 +7692,8 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7690,8 +7707,8 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7705,8 +7722,8 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7720,8 +7737,8 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7735,8 +7752,8 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7750,8 +7767,8 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7765,8 +7782,8 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7780,8 +7797,8 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7795,8 +7812,8 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7810,8 +7827,8 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7825,8 +7842,8 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7840,8 +7857,8 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7855,8 +7872,8 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7870,8 +7887,8 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7885,8 +7902,8 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7900,8 +7917,8 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7915,8 +7932,8 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7930,8 +7947,8 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7945,8 +7962,8 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7960,8 +7977,8 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7975,8 +7992,8 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="18"/>
     </row>
   </sheetData>
@@ -8024,11 +8041,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" firstPageNumber="63" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L           检测：&amp;R   复核：</oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="105" firstPageNumber="63" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -8039,15 +8055,17 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:J5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="5" customWidth="1"/>
     <col min="3" max="10" width="7.625" style="6" customWidth="1"/>
-    <col min="11" max="13" width="10.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="7.25" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="7" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -8201,8 +8219,8 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8216,8 +8234,8 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8231,8 +8249,8 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8246,8 +8264,8 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8261,8 +8279,8 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8276,8 +8294,8 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8291,8 +8309,8 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8306,8 +8324,8 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8321,8 +8339,8 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8336,8 +8354,8 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8351,8 +8369,8 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8366,8 +8384,8 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8381,8 +8399,8 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8396,8 +8414,8 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8411,8 +8429,8 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8426,8 +8444,8 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8441,8 +8459,8 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8456,8 +8474,8 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8471,8 +8489,8 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8486,8 +8504,8 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8501,8 +8519,8 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="18"/>
     </row>
   </sheetData>
@@ -8550,11 +8568,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" firstPageNumber="63" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L           检测：&amp;R   复核：</oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="105" firstPageNumber="63" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
